--- a/marsframework-master/MarsFramework/ExcelData/TestData.xlsx
+++ b/marsframework-master/MarsFramework/ExcelData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competition Task\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393A11D-C0CB-416A-B16E-F7F267C61008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB66B14-412F-4BE6-9627-88D2FDA7E1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD6E5A5-19E2-4D61-8ECB-00E4BB456646}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +841,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="5">
-        <v>44444</v>
+        <v>44813</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
@@ -879,7 +879,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="5">
-        <v>44444</v>
+        <v>44813</v>
       </c>
       <c r="J2" t="s">
         <v>57</v>
